--- a/datatable_assets.xlsx
+++ b/datatable_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotst\OneDrive\바탕 화면\Rich_and_Bankrupt_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211BAA49-2E7F-4144-9414-5F89562B7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string 변수명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int 변수명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>present_value</t>
-  </si>
-  <si>
     <t>later_value</t>
   </si>
   <si>
@@ -128,10 +117,6 @@
   </si>
   <si>
     <t>총 자산 합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +146,22 @@
   </si>
   <si>
     <t>possibility_of_sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 받은 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,17 +338,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -666,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136186FC-80A3-47F5-A0CD-2E7D0FCC76FF}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,45 +683,49 @@
     <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -725,65 +733,65 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>"present_value_"&amp;C3</f>
-        <v>present_value_totalassets</v>
-      </c>
-      <c r="F3" s="1" t="str">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <f>"later_value_"&amp;C3</f>
         <v>later_value_totalassets</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -791,28 +799,27 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>"present_value_"&amp;C4</f>
-        <v>present_value_cash</v>
-      </c>
-      <c r="F4" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f>"later_value_"&amp;C4</f>
         <v>later_value_cash</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -820,29 +827,33 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E8" si="0">"present_value_"&amp;C5</f>
-        <v>present_value_materials</v>
+        <f>"investment_"&amp;C5</f>
+        <v>investment_materials</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F8" si="1">"later_value_"&amp;C5</f>
+        <f>"투자 받은 "&amp;B5&amp;" 가치"</f>
+        <v>투자 받은 원재료 가치</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G8" si="0">"later_value_"&amp;C5</f>
         <v>later_value_materials</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>90</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (G5)&amp;"이 나오면 실행"</f>
+      <c r="I5" s="11"/>
+      <c r="J5" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (H5)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 90이 나오면 실행</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -850,29 +861,33 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="str">
+        <f>"investment_"&amp;C6</f>
+        <v>investment_product</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" ref="F6:F8" si="1">"투자 받은 "&amp;B6&amp;" 가치"</f>
+        <v>투자 받은 제품 가치</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>present_value_product</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>later_value_product</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>80</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (G6)&amp;"이 나오면 실행"</f>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (H6)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 80이 나오면 실행</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -880,29 +895,33 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>present_value_stock</v>
+        <f>"investment_"&amp;C7</f>
+        <v>investment_stock</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>투자 받은 주식 가치</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>later_value_stock</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>40</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (G7)&amp;"이 나오면 실행"</f>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (H7)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 40이 나오면 실행</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -910,47 +929,51 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>present_value_realestate</v>
+        <f>"investment_"&amp;C8</f>
+        <v>investment_realestate</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>투자 받은 부동산 가치</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>later_value_realestate</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>20</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (G8)&amp;"이 나오면 실행"</f>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (H8)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 20이 나오면 실행</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="11"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datatable_assets.xlsx
+++ b/datatable_assets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotst\OneDrive\바탕 화면\Rich_and_Bankrupt_Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dc62b20258fb6a/바탕 화면/Rich_and_Bankrupt_Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2542346-F792-4020-98E8-9929FB7FE75F}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,22 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>later_value</t>
-  </si>
-  <si>
-    <t>rand(1,100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 자산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>totalassets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalassets += present_value[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,11 +146,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매하려는 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibility_of_sale에 따른 rand(1,100) 메모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,10 +344,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136186FC-80A3-47F5-A0CD-2E7D0FCC76FF}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,21 +682,22 @@
     <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,25 +705,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -738,60 +739,70 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>"later_value_"&amp;C3</f>
-        <v>later_value_totalassets</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -802,24 +813,29 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>"later_value_"&amp;C4</f>
-        <v>later_value_cash</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -830,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>"investment_"&amp;C5</f>
@@ -841,19 +857,23 @@
         <v>투자 받은 원재료 가치</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G8" si="0">"later_value_"&amp;C5</f>
-        <v>later_value_materials</v>
-      </c>
-      <c r="H5" s="7">
+        <f>"sale_"&amp;C5</f>
+        <v>sale_materials</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"판매하려는 "&amp;B5&amp;" 가치"</f>
+        <v>판매하려는 원재료 가치</v>
+      </c>
+      <c r="I5" s="7">
         <v>90</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (H5)&amp;"이 나오면 실행"</f>
+      <c r="J5" s="12"/>
+      <c r="K5" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (I5)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 90이 나오면 실행</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -864,30 +884,34 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>"investment_"&amp;C6</f>
         <v>investment_product</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6:F8" si="1">"투자 받은 "&amp;B6&amp;" 가치"</f>
+        <f t="shared" ref="F6:F8" si="0">"투자 받은 "&amp;B6&amp;" 가치"</f>
         <v>투자 받은 제품 가치</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>later_value_product</v>
-      </c>
-      <c r="H6" s="7">
+        <f t="shared" ref="G6:G8" si="1">"sale_"&amp;C6</f>
+        <v>sale_product</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H8" si="2">"판매하려는 "&amp;B6&amp;" 가치"</f>
+        <v>판매하려는 제품 가치</v>
+      </c>
+      <c r="I6" s="7">
         <v>80</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (H6)&amp;"이 나오면 실행"</f>
+      <c r="J6" s="12"/>
+      <c r="K6" s="8" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (I6)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 80이 나오면 실행</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -898,30 +922,34 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>"investment_"&amp;C7</f>
         <v>investment_stock</v>
       </c>
       <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>투자 받은 주식 가치</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>투자 받은 주식 가치</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>later_value_stock</v>
-      </c>
-      <c r="H7" s="7">
+        <v>sale_stock</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>판매하려는 주식 가치</v>
+      </c>
+      <c r="I7" s="7">
         <v>40</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (H7)&amp;"이 나오면 실행"</f>
+      <c r="J7" s="12"/>
+      <c r="K7" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (I7)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 40이 나오면 실행</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -932,26 +960,30 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>"investment_"&amp;C8</f>
         <v>investment_realestate</v>
       </c>
       <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>투자 받은 부동산 가치</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>투자 받은 부동산 가치</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>later_value_realestate</v>
-      </c>
-      <c r="H8" s="7">
+        <v>sale_realestate</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>판매하려는 부동산 가치</v>
+      </c>
+      <c r="I8" s="7">
         <v>20</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (H8)&amp;"이 나오면 실행"</f>
+      <c r="J8" s="12"/>
+      <c r="K8" s="1" t="str">
+        <f>"rand(1,100) 중 1에서 "&amp; (I8)&amp;"이 나오면 실행"</f>
         <v>rand(1,100) 중 1에서 20이 나오면 실행</v>
       </c>
     </row>
@@ -973,7 +1005,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="J3:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datatable_assets.xlsx
+++ b/datatable_assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dc62b20258fb6a/바탕 화면/Rich_and_Bankrupt_Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2542346-F792-4020-98E8-9929FB7FE75F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C4FD2CD-7897-435E-B945-E54A37F400C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,7 +158,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>possibility_of_sale에 따른 rand(1,100) 메모</t>
+    <t>int 변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibility_of_sale에 따른 random(1,100) 메모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,11 +339,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136186FC-80A3-47F5-A0CD-2E7D0FCC76FF}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,7 +689,7 @@
     <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -695,22 +699,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -758,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>17</v>
@@ -869,8 +873,8 @@
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (I5)&amp;"이 나오면 실행"</f>
-        <v>rand(1,100) 중 1에서 90이 나오면 실행</v>
+        <f>"random(1,100) 중 1에서 "&amp; (I5)&amp;"이 나오면 실행"</f>
+        <v>random(1,100) 중 1에서 90이 나오면 실행</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -899,16 +903,16 @@
         <v>sale_product</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H8" si="2">"판매하려는 "&amp;B6&amp;" 가치"</f>
+        <f>"판매하려는 "&amp;B6&amp;" 가치"</f>
         <v>판매하려는 제품 가치</v>
       </c>
       <c r="I6" s="7">
         <v>80</v>
       </c>
       <c r="J6" s="12"/>
-      <c r="K6" s="8" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (I6)&amp;"이 나오면 실행"</f>
-        <v>rand(1,100) 중 1에서 80이 나오면 실행</v>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K8" si="2">"random(1,100) 중 1에서 "&amp; (I6)&amp;"이 나오면 실행"</f>
+        <v>random(1,100) 중 1에서 80이 나오면 실행</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -933,11 +937,11 @@
         <v>투자 받은 주식 가치</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"sale_"&amp;C7</f>
         <v>sale_stock</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"판매하려는 "&amp;B7&amp;" 가치"</f>
         <v>판매하려는 주식 가치</v>
       </c>
       <c r="I7" s="7">
@@ -945,8 +949,8 @@
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (I7)&amp;"이 나오면 실행"</f>
-        <v>rand(1,100) 중 1에서 40이 나오면 실행</v>
+        <f t="shared" si="2"/>
+        <v>random(1,100) 중 1에서 40이 나오면 실행</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -975,7 +979,7 @@
         <v>sale_realestate</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"판매하려는 "&amp;B8&amp;" 가치"</f>
         <v>판매하려는 부동산 가치</v>
       </c>
       <c r="I8" s="7">
@@ -983,24 +987,24 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="1" t="str">
-        <f>"rand(1,100) 중 1에서 "&amp; (I8)&amp;"이 나오면 실행"</f>
-        <v>rand(1,100) 중 1에서 20이 나오면 실행</v>
+        <f t="shared" si="2"/>
+        <v>random(1,100) 중 1에서 20이 나오면 실행</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/datatable_assets.xlsx
+++ b/datatable_assets.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dc62b20258fb6a/바탕 화면/Rich_and_Bankrupt_Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Rich_and_Bankrupt_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{67D98578-EE05-4184-B9BD-6F9BA9B59596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C4FD2CD-7897-435E-B945-E54A37F400C7}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C2297183-C87A-45CE-BBB8-59F5A0FD2EF5}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="datatable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,26 +332,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -670,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136186FC-80A3-47F5-A0CD-2E7D0FCC76FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,10 +700,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -711,10 +713,10 @@
       <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -778,7 +780,7 @@
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -793,16 +795,16 @@
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -813,10 +815,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -831,10 +833,10 @@
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,13 +848,13 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="13" t="str">
         <f>"investment_"&amp;C5</f>
         <v>investment_materials</v>
       </c>
@@ -860,7 +862,7 @@
         <f>"투자 받은 "&amp;B5&amp;" 가치"</f>
         <v>투자 받은 원재료 가치</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="13" t="str">
         <f>"sale_"&amp;C5</f>
         <v>sale_materials</v>
       </c>
@@ -868,10 +870,10 @@
         <f>"판매하려는 "&amp;B5&amp;" 가치"</f>
         <v>판매하려는 원재료 가치</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="12">
         <v>90</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1" t="str">
         <f>"random(1,100) 중 1에서 "&amp; (I5)&amp;"이 나오면 실행"</f>
         <v>random(1,100) 중 1에서 90이 나오면 실행</v>
@@ -884,13 +886,13 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="13" t="str">
         <f>"investment_"&amp;C6</f>
         <v>investment_product</v>
       </c>
@@ -898,7 +900,7 @@
         <f t="shared" ref="F6:F8" si="0">"투자 받은 "&amp;B6&amp;" 가치"</f>
         <v>투자 받은 제품 가치</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="13" t="str">
         <f t="shared" ref="G6:G8" si="1">"sale_"&amp;C6</f>
         <v>sale_product</v>
       </c>
@@ -906,10 +908,10 @@
         <f>"판매하려는 "&amp;B6&amp;" 가치"</f>
         <v>판매하려는 제품 가치</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="12">
         <v>80</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="1" t="str">
         <f t="shared" ref="K6:K8" si="2">"random(1,100) 중 1에서 "&amp; (I6)&amp;"이 나오면 실행"</f>
         <v>random(1,100) 중 1에서 80이 나오면 실행</v>
@@ -922,13 +924,13 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="13" t="str">
         <f>"investment_"&amp;C7</f>
         <v>investment_stock</v>
       </c>
@@ -936,7 +938,7 @@
         <f t="shared" si="0"/>
         <v>투자 받은 주식 가치</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="13" t="str">
         <f>"sale_"&amp;C7</f>
         <v>sale_stock</v>
       </c>
@@ -944,10 +946,10 @@
         <f>"판매하려는 "&amp;B7&amp;" 가치"</f>
         <v>판매하려는 주식 가치</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="12">
         <v>40</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>random(1,100) 중 1에서 40이 나오면 실행</v>
@@ -960,13 +962,13 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="13" t="str">
         <f>"investment_"&amp;C8</f>
         <v>investment_realestate</v>
       </c>
@@ -974,7 +976,7 @@
         <f t="shared" si="0"/>
         <v>투자 받은 부동산 가치</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="13" t="str">
         <f t="shared" si="1"/>
         <v>sale_realestate</v>
       </c>
@@ -982,29 +984,29 @@
         <f>"판매하려는 "&amp;B8&amp;" 가치"</f>
         <v>판매하려는 부동산 가치</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="12">
         <v>20</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>random(1,100) 중 1에서 20이 나오면 실행</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="8"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1013,5 +1015,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>